--- a/biology/Zoologie/Armure_(zoologie)/Armure_(zoologie).xlsx
+++ b/biology/Zoologie/Armure_(zoologie)/Armure_(zoologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une armure chez les animaux est une protection externe ou superficielle contre les attaques des prédateurs, formée comme partie du corps (plutôt qu'un usage comportemental d'objets externes protecteurs), habituellement au moyen d'un durcissement des tissus corporels, d'excroissances ou de sécrétions. Elle a donc été la plupart du temps développée chez les espèces « proies ». Ces structures blindées sont en général composées de dépôts minéraux durcis, de chitine, d’os ou de kératine.
 L'armure est apparente chez de nombreuses espèces animales, à la fois des temps actuels et préhistoriques. Des dinosaures tels que l’Ankylosaurus, ainsi que les Thyreophora (dinosaures blindés tels que  les Ankylosauria et les Stegosauria), ont développé des armures de plaques épaisses sur leurs corps, ainsi que des dispositifs offensifs comme des pointes à la queue ou une massue. Les armures prenaient de nombreuses formes, incluant l’ostéoderme, des pointes, des cornes et des plaques. D'autres dinosaures tels que les dinosaures ceratopsiens ainsi que quelques sauropodes comme le Saltasaurus et l’Agustinia, développaient des armures pour se défendre, bien que les armures fussent peu répandues chez les sauropodes.
